--- a/teaching/traditional_assets/database/data/falkland_islands/falkland_islands_oil_gas_production_and_exploration.xlsx
+++ b/teaching/traditional_assets/database/data/falkland_islands/falkland_islands_oil_gas_production_and_exploration.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>0.193</v>
+        <v>-0.417</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.784</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V2">
-        <v>0.09491525423728814</v>
+        <v>0.08641975308641976</v>
       </c>
       <c r="W2">
-        <v>0.006542372881355932</v>
+        <v>-0.01404040404040404</v>
       </c>
       <c r="X2">
-        <v>0.1157095787858095</v>
+        <v>0.09831860657952607</v>
       </c>
       <c r="Y2">
-        <v>-0.1091672059044535</v>
+        <v>-0.1123590106199301</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.01237070170533967</v>
+        <v>-0.0140406695255222</v>
       </c>
       <c r="AB2">
-        <v>0.1157095787858095</v>
+        <v>0.09831860657952607</v>
       </c>
       <c r="AC2">
-        <v>-0.1280802804911491</v>
+        <v>-0.1123592761050483</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.784</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.1048689138576779</v>
+        <v>-0.0945945945945946</v>
       </c>
       <c r="AK2">
-        <v>-0.02711301701480149</v>
+        <v>-0.01948503827418233</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AQ2">
-        <v>88.5</v>
+        <v>135.3333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>0.193</v>
+        <v>-0.417</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -701,7 +701,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -710,37 +710,37 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.784</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="V3">
-        <v>0.09491525423728814</v>
+        <v>0.08641975308641976</v>
       </c>
       <c r="W3">
-        <v>0.006542372881355932</v>
+        <v>-0.01404040404040404</v>
       </c>
       <c r="X3">
-        <v>0.1157095787858095</v>
+        <v>0.09831860657952607</v>
       </c>
       <c r="Y3">
-        <v>-0.1091672059044535</v>
+        <v>-0.1123590106199301</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.01237070170533967</v>
+        <v>-0.0140406695255222</v>
       </c>
       <c r="AB3">
-        <v>0.1157095787858095</v>
+        <v>0.09831860657952607</v>
       </c>
       <c r="AC3">
-        <v>-0.1280802804911491</v>
+        <v>-0.1123592761050483</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.784</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1048689138576779</v>
+        <v>-0.0945945945945946</v>
       </c>
       <c r="AK3">
-        <v>-0.02711301701480149</v>
+        <v>-0.01948503827418233</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AQ3">
-        <v>88.5</v>
+        <v>135.3333333333333</v>
       </c>
     </row>
   </sheetData>
